--- a/biology/Mycologie/Roccella_canariensis/Roccella_canariensis.xlsx
+++ b/biology/Mycologie/Roccella_canariensis/Roccella_canariensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Roccella canariensis[1] est un lichen maritime filamenteux, de la famille des Roccellaceae, mieux connu sous le nom d'orchilla, dont on extrait une teinture naturelle, l'orseille, de couleur pourpre.
-Roccella canariensis pousse aux îles Canaries, sur les falaises exposées aux vents alizés. Il a été l'une des principales exportations historiques des Canaries. Les marchands drapiers Génois et Vénitiens au XVe siècle, furent les premiers à avoir recours à ce lichen[2].
-Il existe d'autres taxons proches comme : Roccella tinctoria, Roccella vincentina, Roccella arnoldii, Roccella boergescenii[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Roccella canariensis est un lichen maritime filamenteux, de la famille des Roccellaceae, mieux connu sous le nom d'orchilla, dont on extrait une teinture naturelle, l'orseille, de couleur pourpre.
+Roccella canariensis pousse aux îles Canaries, sur les falaises exposées aux vents alizés. Il a été l'une des principales exportations historiques des Canaries. Les marchands drapiers Génois et Vénitiens au XVe siècle, furent les premiers à avoir recours à ce lichen.
+Il existe d'autres taxons proches comme : Roccella tinctoria, Roccella vincentina, Roccella arnoldii, Roccella boergescenii.
 La couleur pourpre était particulièrement prisée par les Romains, mais elle avait une autre origine[Note 1]. 
 Sur les autres projets Wikimedia :
 Roccella canariensis, sur Wikispecies
